--- a/NewDataFile.xlsx
+++ b/NewDataFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="New Data" sheetId="1" r:id="rId1"/>
+    <sheet name="New data" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,67 +410,101 @@
         <v>Branch</v>
       </c>
       <c r="C1" t="str">
-        <v>CPI</v>
+        <v>Sem1</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Sem2</v>
+      </c>
+      <c r="E1" t="str">
+        <v>title1</v>
+      </c>
+      <c r="F1" t="str">
+        <v>title</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>vinayak</v>
+        <v>pradip</v>
       </c>
       <c r="B2" t="str">
-        <v>IT</v>
+        <v>EC</v>
       </c>
       <c r="C2">
-        <v>8.15</v>
+        <v>9.2</v>
+      </c>
+      <c r="D2">
+        <v>6.9</v>
+      </c>
+      <c r="E2" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F2" t="str">
+        <v>president</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>pradip</v>
+        <v>darshan</v>
       </c>
       <c r="B3" t="str">
-        <v>EC</v>
+        <v>IT</v>
       </c>
       <c r="C3">
-        <v>8.05</v>
+        <v>8.8</v>
+      </c>
+      <c r="D3">
+        <v>7.9</v>
+      </c>
+      <c r="E3" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F3" t="str">
+        <v>president</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>darshan</v>
+        <v>jay</v>
       </c>
       <c r="B4" t="str">
-        <v>IT</v>
+        <v>IC</v>
       </c>
       <c r="C4">
-        <v>8.350000000000001</v>
+        <v>6.9</v>
+      </c>
+      <c r="D4">
+        <v>9.2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F4" t="str">
+        <v>president</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>jay</v>
+        <v>vishal</v>
       </c>
       <c r="B5" t="str">
-        <v>IC</v>
+        <v>EC</v>
       </c>
       <c r="C5">
-        <v>8.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>vishal</v>
-      </c>
-      <c r="B6" t="str">
-        <v>EC</v>
-      </c>
-      <c r="C6">
-        <v>8.600000000000001</v>
+        <v>8.4</v>
+      </c>
+      <c r="D5">
+        <v>8.8</v>
+      </c>
+      <c r="E5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F5" t="str">
+        <v>president</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>